--- a/src/Dataset/EXCEL2.xlsx
+++ b/src/Dataset/EXCEL2.xlsx
@@ -27,9 +27,6 @@
     <t>Odds</t>
   </si>
   <si>
-    <t>Benefit</t>
-  </si>
-  <si>
     <t>Express</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Milan-Inter 1 team win</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,12 +435,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -463,12 +463,12 @@
         <v>2.9</v>
       </c>
       <c r="D3" s="3">
-        <v>290.16000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
@@ -477,12 +477,12 @@
         <v>1.92</v>
       </c>
       <c r="D4" s="3">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -491,12 +491,12 @@
         <v>1.3</v>
       </c>
       <c r="D5" s="3">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -505,12 +505,12 @@
         <v>1.6</v>
       </c>
       <c r="D6" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
@@ -519,12 +519,12 @@
         <v>1.32</v>
       </c>
       <c r="D7" s="3">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>113</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>100</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -589,12 +589,12 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D12" s="3">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>46</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>2000</v>
@@ -617,12 +617,12 @@
         <v>22.3</v>
       </c>
       <c r="D14" s="3">
-        <v>44600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>700</v>
